--- a/src/Input_Files/cultures.xlsx
+++ b/src/Input_Files/cultures.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python Scripts\imperator\ProvinceOrganizer\EP_ImperatorProvinceOrganizer\src\Input_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252EB7F8-728E-4345-9DFB-DC15695DB1F8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B7CDB07-D772-46A5-B1C4-1B32A6862D3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23070" yWindow="2010" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10500" yWindow="2490" windowWidth="21600" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Culture</t>
   </si>
@@ -33,28 +33,100 @@
     <t>RGB</t>
   </si>
   <si>
-    <t>prussian</t>
-  </si>
-  <si>
-    <t>roman</t>
-  </si>
-  <si>
-    <t>castillian</t>
-  </si>
-  <si>
-    <t>finnish</t>
-  </si>
-  <si>
-    <t>(0, 49, 83)</t>
-  </si>
-  <si>
-    <t>(148, 19, 13)</t>
-  </si>
-  <si>
-    <t>(231, 215, 79)</t>
-  </si>
-  <si>
-    <t>(31, 87, 20)</t>
+    <t>japanese</t>
+  </si>
+  <si>
+    <t>(150, 120, 120)</t>
+  </si>
+  <si>
+    <t>ainu</t>
+  </si>
+  <si>
+    <t>(100, 120, 120)</t>
+  </si>
+  <si>
+    <t>french</t>
+  </si>
+  <si>
+    <t>(44, 76, 214)</t>
+  </si>
+  <si>
+    <t>burgundian</t>
+  </si>
+  <si>
+    <t>(153, 0, 51)</t>
+  </si>
+  <si>
+    <t>occitan</t>
+  </si>
+  <si>
+    <t>(204, 110, 59)</t>
+  </si>
+  <si>
+    <t>breton</t>
+  </si>
+  <si>
+    <t>(164, 181, 255)</t>
+  </si>
+  <si>
+    <t>flemish</t>
+  </si>
+  <si>
+    <t>(196, 189, 11)</t>
+  </si>
+  <si>
+    <t>franconian</t>
+  </si>
+  <si>
+    <t>(196, 11, 189)</t>
+  </si>
+  <si>
+    <t>(204, 51, 51)</t>
+  </si>
+  <si>
+    <t>(204, 76, 40)</t>
+  </si>
+  <si>
+    <t>(210, 150, 255)</t>
+  </si>
+  <si>
+    <t>(108, 73, 183)</t>
+  </si>
+  <si>
+    <t>(82, 73, 183)</t>
+  </si>
+  <si>
+    <t>(14, 145, 145)</t>
+  </si>
+  <si>
+    <t>(21, 155, 99)</t>
+  </si>
+  <si>
+    <t>(51, 185, 69)</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Scots</t>
+  </si>
+  <si>
+    <t>Norwegian</t>
+  </si>
+  <si>
+    <t>Cornish</t>
+  </si>
+  <si>
+    <t>Welsh</t>
+  </si>
+  <si>
+    <t>Gaelic</t>
+  </si>
+  <si>
+    <t>Irish</t>
+  </si>
+  <si>
+    <t>Hiberno-Norman</t>
   </si>
 </sst>
 </file>
@@ -90,8 +162,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -372,13 +449,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -393,31 +474,127 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/src/Input_Files/cultures.xlsx
+++ b/src/Input_Files/cultures.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python Scripts\imperator\ProvinceOrganizer\EP_ImperatorProvinceOrganizer\src\Input_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B7CDB07-D772-46A5-B1C4-1B32A6862D3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCF349C-316B-4161-A92B-938BC365C29B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10500" yWindow="2490" windowWidth="21600" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1215" yWindow="1515" windowWidth="21600" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Culture</t>
   </si>
@@ -127,6 +127,36 @@
   </si>
   <si>
     <t>Hiberno-Norman</t>
+  </si>
+  <si>
+    <t>arpitan</t>
+  </si>
+  <si>
+    <t>(81, 114, 255)</t>
+  </si>
+  <si>
+    <t>basque</t>
+  </si>
+  <si>
+    <t>(41, 146, 17)</t>
+  </si>
+  <si>
+    <t>walloon</t>
+  </si>
+  <si>
+    <t>(131, 127, 37)</t>
+  </si>
+  <si>
+    <t>picard</t>
+  </si>
+  <si>
+    <t>(110, 120, 161)</t>
+  </si>
+  <si>
+    <t>norman</t>
+  </si>
+  <si>
+    <t>(243, 13, 13)</t>
   </si>
 </sst>
 </file>
@@ -449,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,6 +627,46 @@
         <v>25</v>
       </c>
     </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
